--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl12</t>
   </si>
   <si>
     <t>Ccr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>21.61156247796</v>
+        <v>0.643692</v>
       </c>
       <c r="H2">
-        <v>21.61156247796</v>
+        <v>1.931076</v>
       </c>
       <c r="I2">
-        <v>0.3997131124158992</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J2">
-        <v>0.3997131124158992</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>10.6963822168236</v>
+        <v>0.076804</v>
       </c>
       <c r="N2">
-        <v>10.6963822168236</v>
+        <v>0.230412</v>
       </c>
       <c r="O2">
-        <v>0.1970494085155833</v>
+        <v>0.0008559845391981288</v>
       </c>
       <c r="P2">
-        <v>0.1970494085155833</v>
+        <v>0.000855984539198129</v>
       </c>
       <c r="Q2">
-        <v>231.1655325670235</v>
+        <v>0.049438120368</v>
       </c>
       <c r="R2">
-        <v>231.1655325670235</v>
+        <v>0.444943083312</v>
       </c>
       <c r="S2">
-        <v>0.07876323237747579</v>
+        <v>8.926631418602514E-06</v>
       </c>
       <c r="T2">
-        <v>0.07876323237747579</v>
+        <v>8.933045769003788E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,111 +599,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>21.61156247796</v>
+        <v>0.643692</v>
       </c>
       <c r="H3">
-        <v>21.61156247796</v>
+        <v>1.931076</v>
       </c>
       <c r="I3">
-        <v>0.3997131124158992</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J3">
-        <v>0.3997131124158992</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.5863598497566</v>
+        <v>12.39743733333333</v>
       </c>
       <c r="N3">
-        <v>43.5863598497566</v>
+        <v>37.192312</v>
       </c>
       <c r="O3">
-        <v>0.8029505914844167</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="P3">
-        <v>0.8029505914844167</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="Q3">
-        <v>941.9693390798619</v>
+        <v>7.980131231968001</v>
       </c>
       <c r="R3">
-        <v>941.9693390798619</v>
+        <v>71.82118108771201</v>
       </c>
       <c r="S3">
-        <v>0.3209498800384234</v>
+        <v>0.001440906119601702</v>
       </c>
       <c r="T3">
-        <v>0.3209498800384234</v>
+        <v>0.001441941501966342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>32.4561220854458</v>
+        <v>0.643692</v>
       </c>
       <c r="H4">
-        <v>32.4561220854458</v>
+        <v>1.931076</v>
       </c>
       <c r="I4">
-        <v>0.6002868875841008</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J4">
-        <v>0.6002868875841008</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6963822168236</v>
+        <v>77.25167833333333</v>
       </c>
       <c r="N4">
-        <v>10.6963822168236</v>
+        <v>231.755035</v>
       </c>
       <c r="O4">
-        <v>0.1970494085155833</v>
+        <v>0.8609739373006667</v>
       </c>
       <c r="P4">
-        <v>0.1970494085155833</v>
+        <v>0.8609739373006668</v>
       </c>
       <c r="Q4">
-        <v>347.1630871018182</v>
+        <v>49.72628732974</v>
       </c>
       <c r="R4">
-        <v>347.1630871018182</v>
+        <v>447.53658596766</v>
       </c>
       <c r="S4">
-        <v>0.1182861761381075</v>
+        <v>0.008978663337197391</v>
       </c>
       <c r="T4">
-        <v>0.1182861761381075</v>
+        <v>0.008985115075829709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +711,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H5">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I5">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J5">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.076804</v>
+      </c>
+      <c r="N5">
+        <v>0.230412</v>
+      </c>
+      <c r="O5">
+        <v>0.0008559845391981288</v>
+      </c>
+      <c r="P5">
+        <v>0.000855984539198129</v>
+      </c>
+      <c r="Q5">
+        <v>2.044850151465333</v>
+      </c>
+      <c r="R5">
+        <v>18.403651363188</v>
+      </c>
+      <c r="S5">
+        <v>0.0003692216344903687</v>
+      </c>
+      <c r="T5">
+        <v>0.0003694869436342433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H6">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I6">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J6">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>12.39743733333333</v>
+      </c>
+      <c r="N6">
+        <v>37.192312</v>
+      </c>
+      <c r="O6">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="P6">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="Q6">
+        <v>330.0726734134764</v>
+      </c>
+      <c r="R6">
+        <v>2970.654060721288</v>
+      </c>
+      <c r="S6">
+        <v>0.05959848543962882</v>
+      </c>
+      <c r="T6">
+        <v>0.05964131072848284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H7">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I7">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J7">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>77.25167833333333</v>
+      </c>
+      <c r="N7">
+        <v>231.755035</v>
+      </c>
+      <c r="O7">
+        <v>0.8609739373006667</v>
+      </c>
+      <c r="P7">
+        <v>0.8609739373006668</v>
+      </c>
+      <c r="Q7">
+        <v>2056.769258643662</v>
+      </c>
+      <c r="R7">
+        <v>18510.92332779296</v>
+      </c>
+      <c r="S7">
+        <v>0.3713737688317996</v>
+      </c>
+      <c r="T7">
+        <v>0.3716406244205904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>34.323415</v>
+      </c>
+      <c r="H8">
+        <v>102.970245</v>
+      </c>
+      <c r="I8">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J8">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.076804</v>
+      </c>
+      <c r="N8">
+        <v>0.230412</v>
+      </c>
+      <c r="O8">
+        <v>0.0008559845391981288</v>
+      </c>
+      <c r="P8">
+        <v>0.000855984539198129</v>
+      </c>
+      <c r="Q8">
+        <v>2.63617556566</v>
+      </c>
+      <c r="R8">
+        <v>23.72558009094</v>
+      </c>
+      <c r="S8">
+        <v>0.0004759923608383091</v>
+      </c>
+      <c r="T8">
+        <v>0.0004763343915156801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>34.323415</v>
+      </c>
+      <c r="H9">
+        <v>102.970245</v>
+      </c>
+      <c r="I9">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J9">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.39743733333333</v>
+      </c>
+      <c r="N9">
+        <v>37.192312</v>
+      </c>
+      <c r="O9">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="P9">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="Q9">
+        <v>425.5223865284934</v>
+      </c>
+      <c r="R9">
+        <v>3829.70147875644</v>
+      </c>
+      <c r="S9">
+        <v>0.0768330485995303</v>
+      </c>
+      <c r="T9">
+        <v>0.0768882580142585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>34.323415</v>
+      </c>
+      <c r="H10">
+        <v>102.970245</v>
+      </c>
+      <c r="I10">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J10">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>77.25167833333333</v>
+      </c>
+      <c r="N10">
+        <v>231.755035</v>
+      </c>
+      <c r="O10">
+        <v>0.8609739373006667</v>
+      </c>
+      <c r="P10">
+        <v>0.8609739373006668</v>
+      </c>
+      <c r="Q10">
+        <v>2651.541414881508</v>
+      </c>
+      <c r="R10">
+        <v>23863.87273393357</v>
+      </c>
+      <c r="S10">
+        <v>0.478766844807627</v>
+      </c>
+      <c r="T10">
+        <v>0.4791108691275635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.132963</v>
+      </c>
+      <c r="H11">
+        <v>0.265926</v>
+      </c>
+      <c r="I11">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J11">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.076804</v>
+      </c>
+      <c r="N11">
+        <v>0.230412</v>
+      </c>
+      <c r="O11">
+        <v>0.0008559845391981288</v>
+      </c>
+      <c r="P11">
+        <v>0.000855984539198129</v>
+      </c>
+      <c r="Q11">
+        <v>0.010212090252</v>
+      </c>
+      <c r="R11">
+        <v>0.061272541512</v>
+      </c>
+      <c r="S11">
+        <v>1.843912450848614E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.230158279201907E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>32.4561220854458</v>
-      </c>
-      <c r="H5">
-        <v>32.4561220854458</v>
-      </c>
-      <c r="I5">
-        <v>0.6002868875841008</v>
-      </c>
-      <c r="J5">
-        <v>0.6002868875841008</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>43.5863598497566</v>
-      </c>
-      <c r="N5">
-        <v>43.5863598497566</v>
-      </c>
-      <c r="O5">
-        <v>0.8029505914844167</v>
-      </c>
-      <c r="P5">
-        <v>0.8029505914844167</v>
-      </c>
-      <c r="Q5">
-        <v>1414.644216543873</v>
-      </c>
-      <c r="R5">
-        <v>1414.644216543873</v>
-      </c>
-      <c r="S5">
-        <v>0.4820007114459933</v>
-      </c>
-      <c r="T5">
-        <v>0.4820007114459933</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.132963</v>
+      </c>
+      <c r="H12">
+        <v>0.265926</v>
+      </c>
+      <c r="I12">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J12">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.39743733333333</v>
+      </c>
+      <c r="N12">
+        <v>37.192312</v>
+      </c>
+      <c r="O12">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="P12">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="Q12">
+        <v>1.648400460152</v>
+      </c>
+      <c r="R12">
+        <v>9.890402760912</v>
+      </c>
+      <c r="S12">
+        <v>0.0002976380013742614</v>
+      </c>
+      <c r="T12">
+        <v>0.0001985679154274101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.132963</v>
+      </c>
+      <c r="H13">
+        <v>0.265926</v>
+      </c>
+      <c r="I13">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J13">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>77.25167833333333</v>
+      </c>
+      <c r="N13">
+        <v>231.755035</v>
+      </c>
+      <c r="O13">
+        <v>0.8609739373006667</v>
+      </c>
+      <c r="P13">
+        <v>0.8609739373006668</v>
+      </c>
+      <c r="Q13">
+        <v>10.271614906235</v>
+      </c>
+      <c r="R13">
+        <v>61.62968943740999</v>
+      </c>
+      <c r="S13">
+        <v>0.001854660324042829</v>
+      </c>
+      <c r="T13">
+        <v>0.001237328676683409</v>
       </c>
     </row>
   </sheetData>
